--- a/SN PSG Periodic Noise correction.xlsx
+++ b/SN PSG Periodic Noise correction.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cornelisser\Documents\Dev\TriloTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE8C8CAE-BAD7-4161-9C09-57E1A23717A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A20239DB-37D8-4640-BABF-5679A1B4D6BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{05508442-67C7-4416-A49D-D013656409C1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{05508442-67C7-4416-A49D-D013656409C1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2463" uniqueCount="1426">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2477" uniqueCount="1428">
   <si>
     <t>3ff</t>
   </si>
@@ -7775,6 +7775,12 @@
   </si>
   <si>
     <t>note</t>
+  </si>
+  <si>
+    <t>Tracker Autotune dif</t>
+  </si>
+  <si>
+    <t>Hex</t>
   </si>
 </sst>
 </file>
@@ -19929,7 +19935,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{483C993D-778B-4F0B-AA50-85A98DC3A3AD}">
   <dimension ref="A1:M109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="O35" sqref="O35"/>
     </sheetView>
   </sheetViews>
@@ -27139,10 +27145,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3476A0FA-44BA-4942-8056-8028154145D2}">
-  <dimension ref="A1:S109"/>
+  <dimension ref="A1:T121"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+    <sheetView tabSelected="1" topLeftCell="A97" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K116" sqref="K116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27153,9 +27159,11 @@
     <col min="14" max="14" width="10" customWidth="1"/>
     <col min="15" max="16" width="8.28515625" customWidth="1"/>
     <col min="18" max="18" width="26.7109375" customWidth="1"/>
+    <col min="19" max="19" width="20" customWidth="1"/>
+    <col min="20" max="20" width="26.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -27189,6 +27197,9 @@
       <c r="L1" t="s">
         <v>122</v>
       </c>
+      <c r="M1" t="s">
+        <v>1427</v>
+      </c>
       <c r="N1" t="s">
         <v>1422</v>
       </c>
@@ -27198,8 +27209,11 @@
       <c r="S1" t="s">
         <v>1424</v>
       </c>
-    </row>
-    <row r="2" spans="1:19" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="T1" t="s">
+        <v>1426</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>111861</v>
       </c>
@@ -27239,6 +27253,10 @@
         <f>N2-O2</f>
         <v>-6</v>
       </c>
+      <c r="M2">
+        <f ca="1">DEC2HEX(M2,2)</f>
+        <v>0</v>
+      </c>
       <c r="N2">
         <f>HEX2DEC(J2)</f>
         <v>6842</v>
@@ -27255,8 +27273,12 @@
         <f>_xlfn.CONCAT("   dw $",J2,"      ;",F2)</f>
         <v xml:space="preserve">   dw $1ABA      ;C4</v>
       </c>
-    </row>
-    <row r="3" spans="1:19" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="T2" t="str">
+        <f>_xlfn.CONCAT("      dw ",L2,"        ;  ",F2)</f>
+        <v xml:space="preserve">      dw -6        ;  C4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" ht="23.25" x14ac:dyDescent="0.25">
       <c r="C3" s="1" t="s">
         <v>80</v>
       </c>
@@ -27309,8 +27331,12 @@
         <f t="shared" ref="S3:S61" si="10">_xlfn.CONCAT("   dw $",J3,"      ;",F3)</f>
         <v xml:space="preserve">   dw $193A      ; C#4/Db4 </v>
       </c>
-    </row>
-    <row r="4" spans="1:19" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="T3" t="str">
+        <f t="shared" ref="T3:T61" si="11">_xlfn.CONCAT("      dw ",L3,"        ;  ",F3)</f>
+        <v xml:space="preserve">      dw -6        ;   C#4/Db4 </v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" ht="20.25" x14ac:dyDescent="0.25">
       <c r="C4" s="1" t="s">
         <v>81</v>
       </c>
@@ -27336,7 +27362,7 @@
         <v>6095.9673024523154</v>
       </c>
       <c r="J4" t="str">
-        <f t="shared" ref="J4" si="11">DEC2HEX(ROUND(I4,0),4)</f>
+        <f t="shared" ref="J4" si="12">DEC2HEX(ROUND(I4,0),4)</f>
         <v>17D0</v>
       </c>
       <c r="K4" t="str">
@@ -27363,8 +27389,12 @@
         <f t="shared" si="10"/>
         <v xml:space="preserve">   dw $17D0      ;D4</v>
       </c>
-    </row>
-    <row r="5" spans="1:19" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="T4" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">      dw 0        ;  D4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" ht="23.25" x14ac:dyDescent="0.25">
       <c r="C5" s="1" t="s">
         <v>82</v>
       </c>
@@ -27390,7 +27420,7 @@
         <v>5751.2082262210797</v>
       </c>
       <c r="J5" t="str">
-        <f t="shared" ref="J5" si="12">DEC2HEX(ROUND(I5,0),4)</f>
+        <f t="shared" ref="J5" si="13">DEC2HEX(ROUND(I5,0),4)</f>
         <v>1677</v>
       </c>
       <c r="K5" t="str">
@@ -27417,8 +27447,12 @@
         <f t="shared" si="10"/>
         <v xml:space="preserve">   dw $1677      ; D#4/Eb4 </v>
       </c>
-    </row>
-    <row r="6" spans="1:19" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="T5" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">      dw -9        ;   D#4/Eb4 </v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" ht="20.25" x14ac:dyDescent="0.25">
       <c r="C6" s="1" t="s">
         <v>83</v>
       </c>
@@ -27444,7 +27478,7 @@
         <v>5430.1456310679605</v>
       </c>
       <c r="J6" t="str">
-        <f t="shared" ref="J6" si="13">DEC2HEX(ROUND(I6,0),4)</f>
+        <f t="shared" ref="J6" si="14">DEC2HEX(ROUND(I6,0),4)</f>
         <v>1536</v>
       </c>
       <c r="K6" t="str">
@@ -27471,8 +27505,12 @@
         <f t="shared" si="10"/>
         <v xml:space="preserve">   dw $1536      ;E4</v>
       </c>
-    </row>
-    <row r="7" spans="1:19" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="T6" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">      dw 6        ;  E4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" ht="20.25" x14ac:dyDescent="0.25">
       <c r="C7" s="1" t="s">
         <v>84</v>
       </c>
@@ -27498,7 +27536,7 @@
         <v>5124.1868987631706</v>
       </c>
       <c r="J7" t="str">
-        <f t="shared" ref="J7" si="14">DEC2HEX(ROUND(I7,0),4)</f>
+        <f t="shared" ref="J7" si="15">DEC2HEX(ROUND(I7,0),4)</f>
         <v>1404</v>
       </c>
       <c r="K7" t="str">
@@ -27525,8 +27563,12 @@
         <f t="shared" si="10"/>
         <v xml:space="preserve">   dw $1404      ;F4</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="T7" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">      dw 4        ;  F4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" ht="23.25" x14ac:dyDescent="0.25">
       <c r="C8" s="1" t="s">
         <v>85</v>
       </c>
@@ -27552,7 +27594,7 @@
         <v>4838.2785467128024</v>
       </c>
       <c r="J8" t="str">
-        <f t="shared" ref="J8" si="15">DEC2HEX(ROUND(I8,0),4)</f>
+        <f t="shared" ref="J8" si="16">DEC2HEX(ROUND(I8,0),4)</f>
         <v>12E6</v>
       </c>
       <c r="K8" t="str">
@@ -27579,8 +27621,12 @@
         <f t="shared" si="10"/>
         <v xml:space="preserve">   dw $12E6      ; F#4/Gb4 </v>
       </c>
-    </row>
-    <row r="9" spans="1:19" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="T8" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">      dw 6        ;   F#4/Gb4 </v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" ht="20.25" x14ac:dyDescent="0.25">
       <c r="C9" s="1" t="s">
         <v>86</v>
       </c>
@@ -27606,7 +27652,7 @@
         <v>4565.7551020408164</v>
       </c>
       <c r="J9" t="str">
-        <f t="shared" ref="J9" si="16">DEC2HEX(ROUND(I9,0),4)</f>
+        <f t="shared" ref="J9" si="17">DEC2HEX(ROUND(I9,0),4)</f>
         <v>11D6</v>
       </c>
       <c r="K9" t="str">
@@ -27633,8 +27679,12 @@
         <f t="shared" si="10"/>
         <v xml:space="preserve">   dw $11D6      ;G4</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="T9" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">      dw 6        ;  G4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" ht="23.25" x14ac:dyDescent="0.25">
       <c r="C10" s="1" t="s">
         <v>87</v>
       </c>
@@ -27660,7 +27710,7 @@
         <v>4308.9753466872107</v>
       </c>
       <c r="J10" t="str">
-        <f t="shared" ref="J10" si="17">DEC2HEX(ROUND(I10,0),4)</f>
+        <f t="shared" ref="J10" si="18">DEC2HEX(ROUND(I10,0),4)</f>
         <v>10D5</v>
       </c>
       <c r="K10" t="str">
@@ -27687,8 +27737,12 @@
         <f t="shared" si="10"/>
         <v xml:space="preserve">   dw $10D5      ; G#4/Ab4 </v>
       </c>
-    </row>
-    <row r="11" spans="1:19" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="T10" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">      dw 5        ;   G#4/Ab4 </v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" ht="20.25" x14ac:dyDescent="0.25">
       <c r="C11" s="1" t="s">
         <v>88</v>
       </c>
@@ -27714,7 +27768,7 @@
         <v>4067.6727272727271</v>
       </c>
       <c r="J11" t="str">
-        <f t="shared" ref="J11" si="18">DEC2HEX(ROUND(I11,0),4)</f>
+        <f t="shared" ref="J11" si="19">DEC2HEX(ROUND(I11,0),4)</f>
         <v>0FE4</v>
       </c>
       <c r="K11" t="str">
@@ -27741,8 +27795,12 @@
         <f t="shared" si="10"/>
         <v xml:space="preserve">   dw $0FE4      ;A4</v>
       </c>
-    </row>
-    <row r="12" spans="1:19" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="T11" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">      dw 4        ;  A4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" ht="23.25" x14ac:dyDescent="0.25">
       <c r="C12" s="1" t="s">
         <v>89</v>
       </c>
@@ -27768,7 +27826,7 @@
         <v>3838.7439945092656</v>
       </c>
       <c r="J12" t="str">
-        <f t="shared" ref="J12" si="19">DEC2HEX(ROUND(I12,0),4)</f>
+        <f t="shared" ref="J12" si="20">DEC2HEX(ROUND(I12,0),4)</f>
         <v>0EFF</v>
       </c>
       <c r="K12" t="str">
@@ -27795,8 +27853,12 @@
         <f t="shared" si="10"/>
         <v xml:space="preserve">   dw $0EFF      ; A#4/Bb4 </v>
       </c>
-    </row>
-    <row r="13" spans="1:19" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="T12" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">      dw -1        ;   A#4/Bb4 </v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" ht="20.25" x14ac:dyDescent="0.25">
       <c r="C13" s="1" t="s">
         <v>90</v>
       </c>
@@ -27822,7 +27884,7 @@
         <v>3623.6151603498542</v>
       </c>
       <c r="J13" t="str">
-        <f t="shared" ref="J13" si="20">DEC2HEX(ROUND(I13,0),4)</f>
+        <f t="shared" ref="J13" si="21">DEC2HEX(ROUND(I13,0),4)</f>
         <v>0E28</v>
       </c>
       <c r="K13" t="str">
@@ -27849,8 +27911,12 @@
         <f t="shared" si="10"/>
         <v xml:space="preserve">   dw $0E28      ;B4</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="T13" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">      dw 8        ;  B4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" ht="20.25" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>1</v>
       </c>
@@ -27879,7 +27945,7 @@
         <v>3420.8256880733943</v>
       </c>
       <c r="J14" t="str">
-        <f t="shared" ref="J14" si="21">DEC2HEX(ROUND(I14,0),4)</f>
+        <f t="shared" ref="J14" si="22">DEC2HEX(ROUND(I14,0),4)</f>
         <v>0D5D</v>
       </c>
       <c r="K14" t="str">
@@ -27906,8 +27972,12 @@
         <f t="shared" si="10"/>
         <v xml:space="preserve">   dw $0D5D      ;C5</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="T14" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">      dw -3        ;  C5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" ht="23.25" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>2</v>
       </c>
@@ -27936,7 +28006,7 @@
         <v>3228.3116883116886</v>
       </c>
       <c r="J15" t="str">
-        <f t="shared" ref="J15" si="22">DEC2HEX(ROUND(I15,0),4)</f>
+        <f t="shared" ref="J15" si="23">DEC2HEX(ROUND(I15,0),4)</f>
         <v>0C9C</v>
       </c>
       <c r="K15" t="str">
@@ -27963,8 +28033,12 @@
         <f t="shared" si="10"/>
         <v xml:space="preserve">   dw $0C9C      ; C#5/Db5 </v>
       </c>
-    </row>
-    <row r="16" spans="1:19" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="T15" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">      dw -4        ;   C#5/Db5 </v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" ht="20.25" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>3</v>
       </c>
@@ -27993,7 +28067,7 @@
         <v>3047.1533642059385</v>
       </c>
       <c r="J16" t="str">
-        <f t="shared" ref="J16" si="23">DEC2HEX(ROUND(I16,0),4)</f>
+        <f t="shared" ref="J16" si="24">DEC2HEX(ROUND(I16,0),4)</f>
         <v>0BE7</v>
       </c>
       <c r="K16" t="str">
@@ -28020,8 +28094,12 @@
         <f t="shared" si="10"/>
         <v xml:space="preserve">   dw $0BE7      ;D5</v>
       </c>
-    </row>
-    <row r="17" spans="2:19" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="T16" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">      dw 7        ;  D5</v>
+      </c>
+    </row>
+    <row r="17" spans="2:20" ht="23.25" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>4</v>
       </c>
@@ -28050,7 +28128,7 @@
         <v>2876.3435330419129</v>
       </c>
       <c r="J17" t="str">
-        <f t="shared" ref="J17" si="24">DEC2HEX(ROUND(I17,0),4)</f>
+        <f t="shared" ref="J17" si="25">DEC2HEX(ROUND(I17,0),4)</f>
         <v>0B3C</v>
       </c>
       <c r="K17" t="str">
@@ -28077,8 +28155,12 @@
         <f t="shared" si="10"/>
         <v xml:space="preserve">   dw $0B3C      ; D#5/Eb5 </v>
       </c>
-    </row>
-    <row r="18" spans="2:19" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="T17" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">      dw -4        ;   D#5/Eb5 </v>
+      </c>
+    </row>
+    <row r="18" spans="2:20" ht="20.25" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>5</v>
       </c>
@@ -28107,7 +28189,7 @@
         <v>2715.0728155339802</v>
       </c>
       <c r="J18" t="str">
-        <f t="shared" ref="J18" si="25">DEC2HEX(ROUND(I18,0),4)</f>
+        <f t="shared" ref="J18" si="26">DEC2HEX(ROUND(I18,0),4)</f>
         <v>0A9B</v>
       </c>
       <c r="K18" t="str">
@@ -28134,8 +28216,12 @@
         <f t="shared" si="10"/>
         <v xml:space="preserve">   dw $0A9B      ;E5</v>
       </c>
-    </row>
-    <row r="19" spans="2:19" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="T18" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">      dw -5        ;  E5</v>
+      </c>
+    </row>
+    <row r="19" spans="2:20" ht="20.25" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>6</v>
       </c>
@@ -28164,7 +28250,7 @@
         <v>2562.680412371134</v>
       </c>
       <c r="J19" t="str">
-        <f t="shared" ref="J19" si="26">DEC2HEX(ROUND(I19,0),4)</f>
+        <f t="shared" ref="J19" si="27">DEC2HEX(ROUND(I19,0),4)</f>
         <v>0A03</v>
       </c>
       <c r="K19" t="str">
@@ -28191,8 +28277,12 @@
         <f t="shared" si="10"/>
         <v xml:space="preserve">   dw $0A03      ;F5</v>
       </c>
-    </row>
-    <row r="20" spans="2:19" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="T19" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">      dw 3        ;  F5</v>
+      </c>
+    </row>
+    <row r="20" spans="2:20" ht="23.25" x14ac:dyDescent="0.25">
       <c r="B20">
         <v>7</v>
       </c>
@@ -28221,7 +28311,7 @@
         <v>2418.6162162162163</v>
       </c>
       <c r="J20" t="str">
-        <f t="shared" ref="J20" si="27">DEC2HEX(ROUND(I20,0),4)</f>
+        <f t="shared" ref="J20" si="28">DEC2HEX(ROUND(I20,0),4)</f>
         <v>0973</v>
       </c>
       <c r="K20" t="str">
@@ -28248,8 +28338,12 @@
         <f t="shared" si="10"/>
         <v xml:space="preserve">   dw $0973      ; F#5/Gb5 </v>
       </c>
-    </row>
-    <row r="21" spans="2:19" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="T20" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">      dw 3        ;   F#5/Gb5 </v>
+      </c>
+    </row>
+    <row r="21" spans="2:20" ht="20.25" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>8</v>
       </c>
@@ -28278,7 +28372,7 @@
         <v>2282.8775510204082</v>
       </c>
       <c r="J21" t="str">
-        <f t="shared" ref="J21" si="28">DEC2HEX(ROUND(I21,0),4)</f>
+        <f t="shared" ref="J21" si="29">DEC2HEX(ROUND(I21,0),4)</f>
         <v>08EB</v>
       </c>
       <c r="K21" t="str">
@@ -28305,8 +28399,12 @@
         <f t="shared" si="10"/>
         <v xml:space="preserve">   dw $08EB      ;G5</v>
       </c>
-    </row>
-    <row r="22" spans="2:19" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="T21" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">      dw -5        ;  G5</v>
+      </c>
+    </row>
+    <row r="22" spans="2:20" ht="23.25" x14ac:dyDescent="0.25">
       <c r="B22">
         <v>9</v>
       </c>
@@ -28335,7 +28433,7 @@
         <v>2154.9027162396455</v>
       </c>
       <c r="J22" t="str">
-        <f t="shared" ref="J22" si="29">DEC2HEX(ROUND(I22,0),4)</f>
+        <f t="shared" ref="J22" si="30">DEC2HEX(ROUND(I22,0),4)</f>
         <v>086B</v>
       </c>
       <c r="K22" t="str">
@@ -28362,8 +28460,12 @@
         <f t="shared" si="10"/>
         <v xml:space="preserve">   dw $086B      ; G#5/Ab5 </v>
       </c>
-    </row>
-    <row r="23" spans="2:19" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="T22" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">      dw -5        ;   G#5/Ab5 </v>
+      </c>
+    </row>
+    <row r="23" spans="2:20" ht="20.25" x14ac:dyDescent="0.25">
       <c r="B23">
         <v>10</v>
       </c>
@@ -28392,7 +28494,7 @@
         <v>2033.8363636363636</v>
       </c>
       <c r="J23" t="str">
-        <f t="shared" ref="J23" si="30">DEC2HEX(ROUND(I23,0),4)</f>
+        <f t="shared" ref="J23" si="31">DEC2HEX(ROUND(I23,0),4)</f>
         <v>07F2</v>
       </c>
       <c r="K23" t="str">
@@ -28419,8 +28521,12 @@
         <f t="shared" si="10"/>
         <v xml:space="preserve">   dw $07F2      ;A5</v>
       </c>
-    </row>
-    <row r="24" spans="2:19" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="T23" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">      dw 2        ;  A5</v>
+      </c>
+    </row>
+    <row r="24" spans="2:20" ht="23.25" x14ac:dyDescent="0.25">
       <c r="B24">
         <v>11</v>
       </c>
@@ -28449,7 +28555,7 @@
         <v>1919.7013900806589</v>
       </c>
       <c r="J24" t="str">
-        <f t="shared" ref="J24" si="31">DEC2HEX(ROUND(I24,0),4)</f>
+        <f t="shared" ref="J24" si="32">DEC2HEX(ROUND(I24,0),4)</f>
         <v>0780</v>
       </c>
       <c r="K24" t="str">
@@ -28476,8 +28582,12 @@
         <f t="shared" si="10"/>
         <v xml:space="preserve">   dw $0780      ; A#5/Bb5 </v>
       </c>
-    </row>
-    <row r="25" spans="2:19" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="T24" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">      dw 0        ;   A#5/Bb5 </v>
+      </c>
+    </row>
+    <row r="25" spans="2:20" ht="20.25" x14ac:dyDescent="0.25">
       <c r="B25">
         <v>12</v>
       </c>
@@ -28506,7 +28616,7 @@
         <v>1811.8075801749271</v>
       </c>
       <c r="J25" t="str">
-        <f t="shared" ref="J25" si="32">DEC2HEX(ROUND(I25,0),4)</f>
+        <f t="shared" ref="J25" si="33">DEC2HEX(ROUND(I25,0),4)</f>
         <v>0714</v>
       </c>
       <c r="K25" t="str">
@@ -28533,8 +28643,12 @@
         <f t="shared" si="10"/>
         <v xml:space="preserve">   dw $0714      ;B5</v>
       </c>
-    </row>
-    <row r="26" spans="2:19" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="T25" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">      dw 4        ;  B5</v>
+      </c>
+    </row>
+    <row r="26" spans="2:20" ht="20.25" x14ac:dyDescent="0.25">
       <c r="B26">
         <v>13</v>
       </c>
@@ -28563,7 +28677,7 @@
         <v>1710.1513530041279</v>
       </c>
       <c r="J26" t="str">
-        <f t="shared" ref="J26" si="33">DEC2HEX(ROUND(I26,0),4)</f>
+        <f t="shared" ref="J26" si="34">DEC2HEX(ROUND(I26,0),4)</f>
         <v>06AE</v>
       </c>
       <c r="K26" t="str">
@@ -28590,8 +28704,12 @@
         <f t="shared" si="10"/>
         <v xml:space="preserve">   dw $06AE      ;C6</v>
       </c>
-    </row>
-    <row r="27" spans="2:19" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="T26" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">      dw -2        ;  C6</v>
+      </c>
+    </row>
+    <row r="27" spans="2:20" ht="23.25" x14ac:dyDescent="0.25">
       <c r="B27">
         <v>14</v>
       </c>
@@ -28620,7 +28738,7 @@
         <v>1614.1558441558443</v>
       </c>
       <c r="J27" t="str">
-        <f t="shared" ref="J27" si="34">DEC2HEX(ROUND(I27,0),4)</f>
+        <f t="shared" ref="J27" si="35">DEC2HEX(ROUND(I27,0),4)</f>
         <v>064E</v>
       </c>
       <c r="K27" t="str">
@@ -28647,8 +28765,12 @@
         <f t="shared" si="10"/>
         <v xml:space="preserve">   dw $064E      ; C#6/Db6 </v>
       </c>
-    </row>
-    <row r="28" spans="2:19" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="T27" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">      dw -2        ;   C#6/Db6 </v>
+      </c>
+    </row>
+    <row r="28" spans="2:20" ht="20.25" x14ac:dyDescent="0.25">
       <c r="B28">
         <v>15</v>
       </c>
@@ -28677,7 +28799,7 @@
         <v>1523.5766821029692</v>
       </c>
       <c r="J28" t="str">
-        <f t="shared" ref="J28" si="35">DEC2HEX(ROUND(I28,0),4)</f>
+        <f t="shared" ref="J28" si="36">DEC2HEX(ROUND(I28,0),4)</f>
         <v>05F4</v>
       </c>
       <c r="K28" t="str">
@@ -28704,8 +28826,12 @@
         <f t="shared" si="10"/>
         <v xml:space="preserve">   dw $05F4      ;D6</v>
       </c>
-    </row>
-    <row r="29" spans="2:19" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="T28" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">      dw 4        ;  D6</v>
+      </c>
+    </row>
+    <row r="29" spans="2:20" ht="23.25" x14ac:dyDescent="0.25">
       <c r="B29">
         <v>16</v>
       </c>
@@ -28734,7 +28860,7 @@
         <v>1438.1717665209565</v>
       </c>
       <c r="J29" t="str">
-        <f t="shared" ref="J29" si="36">DEC2HEX(ROUND(I29,0),4)</f>
+        <f t="shared" ref="J29" si="37">DEC2HEX(ROUND(I29,0),4)</f>
         <v>059E</v>
       </c>
       <c r="K29" t="str">
@@ -28761,8 +28887,12 @@
         <f t="shared" si="10"/>
         <v xml:space="preserve">   dw $059E      ; D#6/Eb6 </v>
       </c>
-    </row>
-    <row r="30" spans="2:19" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="T29" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">      dw -2        ;   D#6/Eb6 </v>
+      </c>
+    </row>
+    <row r="30" spans="2:20" ht="20.25" x14ac:dyDescent="0.25">
       <c r="B30">
         <v>17</v>
       </c>
@@ -28791,7 +28921,7 @@
         <v>1357.371678194394</v>
       </c>
       <c r="J30" t="str">
-        <f t="shared" ref="J30" si="37">DEC2HEX(ROUND(I30,0),4)</f>
+        <f t="shared" ref="J30" si="38">DEC2HEX(ROUND(I30,0),4)</f>
         <v>054D</v>
       </c>
       <c r="K30" t="str">
@@ -28818,8 +28948,12 @@
         <f t="shared" si="10"/>
         <v xml:space="preserve">   dw $054D      ;E6</v>
       </c>
-    </row>
-    <row r="31" spans="2:19" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="T30" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">      dw -3        ;  E6</v>
+      </c>
+    </row>
+    <row r="31" spans="2:20" ht="20.25" x14ac:dyDescent="0.25">
       <c r="B31">
         <v>18</v>
       </c>
@@ -28848,7 +28982,7 @@
         <v>1281.1934486313137</v>
       </c>
       <c r="J31" t="str">
-        <f t="shared" ref="J31" si="38">DEC2HEX(ROUND(I31,0),4)</f>
+        <f t="shared" ref="J31" si="39">DEC2HEX(ROUND(I31,0),4)</f>
         <v>0501</v>
       </c>
       <c r="K31" t="str">
@@ -28875,8 +29009,12 @@
         <f t="shared" si="10"/>
         <v xml:space="preserve">   dw $0501      ;F6</v>
       </c>
-    </row>
-    <row r="32" spans="2:19" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="T31" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">      dw 1        ;  F6</v>
+      </c>
+    </row>
+    <row r="32" spans="2:20" ht="23.25" x14ac:dyDescent="0.25">
       <c r="B32">
         <v>19</v>
       </c>
@@ -28905,7 +29043,7 @@
         <v>1209.3081081081082</v>
       </c>
       <c r="J32" t="str">
-        <f t="shared" ref="J32" si="39">DEC2HEX(ROUND(I32,0),4)</f>
+        <f t="shared" ref="J32" si="40">DEC2HEX(ROUND(I32,0),4)</f>
         <v>04B9</v>
       </c>
       <c r="K32" t="str">
@@ -28932,8 +29070,12 @@
         <f t="shared" si="10"/>
         <v xml:space="preserve">   dw $04B9      ; F#6/Gb6 </v>
       </c>
-    </row>
-    <row r="33" spans="2:19" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="T32" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">      dw -7        ;   F#6/Gb6 </v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" ht="20.25" x14ac:dyDescent="0.25">
       <c r="B33">
         <v>20</v>
       </c>
@@ -28962,7 +29104,7 @@
         <v>1141.4387755102041</v>
       </c>
       <c r="J33" t="str">
-        <f t="shared" ref="J33" si="40">DEC2HEX(ROUND(I33,0),4)</f>
+        <f t="shared" ref="J33" si="41">DEC2HEX(ROUND(I33,0),4)</f>
         <v>0475</v>
       </c>
       <c r="K33" t="str">
@@ -28989,8 +29131,12 @@
         <f t="shared" si="10"/>
         <v xml:space="preserve">   dw $0475      ;G6</v>
       </c>
-    </row>
-    <row r="34" spans="2:19" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="T33" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">      dw 5        ;  G6</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" ht="23.25" x14ac:dyDescent="0.25">
       <c r="B34">
         <v>21</v>
       </c>
@@ -29007,7 +29153,7 @@
         <v>51</v>
       </c>
       <c r="G34" s="8">
-        <f t="shared" ref="G34:G65" si="41">$A$2/D34</f>
+        <f t="shared" ref="G34:G65" si="42">$A$2/D34</f>
         <v>1077.3475874024848</v>
       </c>
       <c r="H34" s="8" t="str">
@@ -29019,7 +29165,7 @@
         <v>1077.3475874024848</v>
       </c>
       <c r="J34" t="str">
-        <f t="shared" ref="J34" si="42">DEC2HEX(ROUND(I34,0),4)</f>
+        <f t="shared" ref="J34" si="43">DEC2HEX(ROUND(I34,0),4)</f>
         <v>0435</v>
       </c>
       <c r="K34" t="str">
@@ -29046,8 +29192,12 @@
         <f t="shared" si="10"/>
         <v xml:space="preserve">   dw $0435      ; G#6/Ab6 </v>
       </c>
-    </row>
-    <row r="35" spans="2:19" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="T34" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">      dw 5        ;   G#6/Ab6 </v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" ht="20.25" x14ac:dyDescent="0.25">
       <c r="B35">
         <v>22</v>
       </c>
@@ -29064,7 +29214,7 @@
         <v>52</v>
       </c>
       <c r="G35">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>1016.9181818181818</v>
       </c>
       <c r="H35" t="str">
@@ -29076,7 +29226,7 @@
         <v>1016.9181818181818</v>
       </c>
       <c r="J35" t="str">
-        <f t="shared" ref="J35" si="43">DEC2HEX(ROUND(I35,0),4)</f>
+        <f t="shared" ref="J35" si="44">DEC2HEX(ROUND(I35,0),4)</f>
         <v>03F9</v>
       </c>
       <c r="K35" t="str">
@@ -29103,8 +29253,12 @@
         <f t="shared" si="10"/>
         <v xml:space="preserve">   dw $03F9      ;A6</v>
       </c>
-    </row>
-    <row r="36" spans="2:19" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="T35" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">      dw -7        ;  A6</v>
+      </c>
+    </row>
+    <row r="36" spans="2:20" ht="23.25" x14ac:dyDescent="0.25">
       <c r="B36">
         <v>23</v>
       </c>
@@ -29121,11 +29275,11 @@
         <v>53</v>
       </c>
       <c r="G36">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>959.85069504032947</v>
       </c>
       <c r="H36" t="str">
-        <f t="shared" ref="H36:J99" si="44">DEC2HEX(ROUND(G36,0),4)</f>
+        <f t="shared" ref="H36:J99" si="45">DEC2HEX(ROUND(G36,0),4)</f>
         <v>03C0</v>
       </c>
       <c r="I36">
@@ -29133,7 +29287,7 @@
         <v>959.85069504032947</v>
       </c>
       <c r="J36" t="str">
-        <f t="shared" ref="J36" si="45">DEC2HEX(ROUND(I36,0),4)</f>
+        <f t="shared" ref="J36" si="46">DEC2HEX(ROUND(I36,0),4)</f>
         <v>03C0</v>
       </c>
       <c r="K36" t="str">
@@ -29160,8 +29314,12 @@
         <f t="shared" si="10"/>
         <v xml:space="preserve">   dw $03C0      ; A#6/Bb6 </v>
       </c>
-    </row>
-    <row r="37" spans="2:19" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="T36" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">      dw 0        ;   A#6/Bb6 </v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" ht="20.25" x14ac:dyDescent="0.25">
       <c r="B37">
         <v>24</v>
       </c>
@@ -29178,11 +29336,11 @@
         <v>54</v>
       </c>
       <c r="G37">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>905.97716044383253</v>
       </c>
       <c r="H37" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>038A</v>
       </c>
       <c r="I37">
@@ -29190,7 +29348,7 @@
         <v>905.97716044383253</v>
       </c>
       <c r="J37" t="str">
-        <f t="shared" ref="J37" si="46">DEC2HEX(ROUND(I37,0),4)</f>
+        <f t="shared" ref="J37" si="47">DEC2HEX(ROUND(I37,0),4)</f>
         <v>038A</v>
       </c>
       <c r="K37" t="str">
@@ -29217,8 +29375,12 @@
         <f t="shared" si="10"/>
         <v xml:space="preserve">   dw $038A      ;B6</v>
       </c>
-    </row>
-    <row r="38" spans="2:19" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="T37" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">      dw -6        ;  B6</v>
+      </c>
+    </row>
+    <row r="38" spans="2:20" ht="20.25" x14ac:dyDescent="0.25">
       <c r="B38">
         <v>25</v>
       </c>
@@ -29235,11 +29397,11 @@
         <v>55</v>
       </c>
       <c r="G38">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>855.14104426267102</v>
       </c>
       <c r="H38" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>0357</v>
       </c>
       <c r="I38">
@@ -29247,7 +29409,7 @@
         <v>855.14104426267102</v>
       </c>
       <c r="J38" t="str">
-        <f t="shared" ref="J38" si="47">DEC2HEX(ROUND(I38,0),4)</f>
+        <f t="shared" ref="J38" si="48">DEC2HEX(ROUND(I38,0),4)</f>
         <v>0357</v>
       </c>
       <c r="K38" t="str">
@@ -29274,8 +29436,12 @@
         <f t="shared" si="10"/>
         <v xml:space="preserve">   dw $0357      ;C7</v>
       </c>
-    </row>
-    <row r="39" spans="2:19" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="T38" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">      dw 7        ;  C7</v>
+      </c>
+    </row>
+    <row r="39" spans="2:20" ht="23.25" x14ac:dyDescent="0.25">
       <c r="B39">
         <v>26</v>
       </c>
@@ -29292,11 +29458,11 @@
         <v>56</v>
       </c>
       <c r="G39">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>807.13615700988521</v>
       </c>
       <c r="H39" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>0327</v>
       </c>
       <c r="I39">
@@ -29304,7 +29470,7 @@
         <v>807.13615700988521</v>
       </c>
       <c r="J39" t="str">
-        <f t="shared" ref="J39" si="48">DEC2HEX(ROUND(I39,0),4)</f>
+        <f t="shared" ref="J39" si="49">DEC2HEX(ROUND(I39,0),4)</f>
         <v>0327</v>
       </c>
       <c r="K39" t="str">
@@ -29331,8 +29497,12 @@
         <f t="shared" si="10"/>
         <v xml:space="preserve">   dw $0327      ; C#7/Db7 </v>
       </c>
-    </row>
-    <row r="40" spans="2:19" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="T39" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">      dw 7        ;   C#7/Db7 </v>
+      </c>
+    </row>
+    <row r="40" spans="2:20" ht="20.25" x14ac:dyDescent="0.25">
       <c r="B40">
         <v>27</v>
       </c>
@@ -29349,11 +29519,11 @@
         <v>57</v>
       </c>
       <c r="G40">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>761.84022338759098</v>
       </c>
       <c r="H40" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>02FA</v>
       </c>
       <c r="I40">
@@ -29361,7 +29531,7 @@
         <v>761.84022338759098</v>
       </c>
       <c r="J40" t="str">
-        <f t="shared" ref="J40" si="49">DEC2HEX(ROUND(I40,0),4)</f>
+        <f t="shared" ref="J40" si="50">DEC2HEX(ROUND(I40,0),4)</f>
         <v>02FA</v>
       </c>
       <c r="K40" t="str">
@@ -29388,8 +29558,12 @@
         <f t="shared" si="10"/>
         <v xml:space="preserve">   dw $02FA      ;D7</v>
       </c>
-    </row>
-    <row r="41" spans="2:19" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="T40" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">      dw -6        ;  D7</v>
+      </c>
+    </row>
+    <row r="41" spans="2:20" ht="23.25" x14ac:dyDescent="0.25">
       <c r="B41">
         <v>28</v>
       </c>
@@ -29406,11 +29580,11 @@
         <v>58</v>
       </c>
       <c r="G41">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>719.08588326047823</v>
       </c>
       <c r="H41" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>02CF</v>
       </c>
       <c r="I41">
@@ -29418,7 +29592,7 @@
         <v>719.08588326047823</v>
       </c>
       <c r="J41" t="str">
-        <f t="shared" ref="J41" si="50">DEC2HEX(ROUND(I41,0),4)</f>
+        <f t="shared" ref="J41" si="51">DEC2HEX(ROUND(I41,0),4)</f>
         <v>02CF</v>
       </c>
       <c r="K41" t="str">
@@ -29445,8 +29619,12 @@
         <f t="shared" si="10"/>
         <v xml:space="preserve">   dw $02CF      ; D#7/Eb7 </v>
       </c>
-    </row>
-    <row r="42" spans="2:19" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="T41" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">      dw -1        ;   D#7/Eb7 </v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" ht="20.25" x14ac:dyDescent="0.25">
       <c r="B42">
         <v>29</v>
       </c>
@@ -29463,11 +29641,11 @@
         <v>59</v>
       </c>
       <c r="G42">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>678.72701899156607</v>
       </c>
       <c r="H42" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>02A7</v>
       </c>
       <c r="I42">
@@ -29475,7 +29653,7 @@
         <v>678.72701899156607</v>
       </c>
       <c r="J42" t="str">
-        <f t="shared" ref="J42" si="51">DEC2HEX(ROUND(I42,0),4)</f>
+        <f t="shared" ref="J42" si="52">DEC2HEX(ROUND(I42,0),4)</f>
         <v>02A7</v>
       </c>
       <c r="K42" t="str">
@@ -29502,8 +29680,12 @@
         <f t="shared" si="10"/>
         <v xml:space="preserve">   dw $02A7      ;E7</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="T42" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">      dw 7        ;  E7</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" ht="20.25" x14ac:dyDescent="0.25">
       <c r="B43">
         <v>30</v>
       </c>
@@ -29520,11 +29702,11 @@
         <v>60</v>
       </c>
       <c r="G43">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>640.63341160300092</v>
       </c>
       <c r="H43" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>0281</v>
       </c>
       <c r="I43">
@@ -29532,7 +29714,7 @@
         <v>640.63341160300092</v>
       </c>
       <c r="J43" t="str">
-        <f t="shared" ref="J43" si="52">DEC2HEX(ROUND(I43,0),4)</f>
+        <f t="shared" ref="J43" si="53">DEC2HEX(ROUND(I43,0),4)</f>
         <v>0281</v>
       </c>
       <c r="K43" t="str">
@@ -29559,8 +29741,12 @@
         <f t="shared" si="10"/>
         <v xml:space="preserve">   dw $0281      ;F7</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="T43" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">      dw 1        ;  F7</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" ht="23.25" x14ac:dyDescent="0.25">
       <c r="B44">
         <v>31</v>
       </c>
@@ -29577,11 +29763,11 @@
         <v>61</v>
       </c>
       <c r="G44">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>604.65405405405409</v>
       </c>
       <c r="H44" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>025D</v>
       </c>
       <c r="I44">
@@ -29589,7 +29775,7 @@
         <v>604.65405405405409</v>
       </c>
       <c r="J44" t="str">
-        <f t="shared" ref="J44" si="53">DEC2HEX(ROUND(I44,0),4)</f>
+        <f t="shared" ref="J44" si="54">DEC2HEX(ROUND(I44,0),4)</f>
         <v>025D</v>
       </c>
       <c r="K44" t="str">
@@ -29616,8 +29802,12 @@
         <f t="shared" si="10"/>
         <v xml:space="preserve">   dw $025D      ; F#7/Gb7 </v>
       </c>
-    </row>
-    <row r="45" spans="2:19" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="T44" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">      dw -3        ;   F#7/Gb7 </v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" ht="20.25" x14ac:dyDescent="0.25">
       <c r="B45">
         <v>32</v>
       </c>
@@ -29634,11 +29824,11 @@
         <v>62</v>
       </c>
       <c r="G45">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>570.71938775510205</v>
       </c>
       <c r="H45" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>023B</v>
       </c>
       <c r="I45">
@@ -29646,7 +29836,7 @@
         <v>570.71938775510205</v>
       </c>
       <c r="J45" t="str">
-        <f t="shared" ref="J45" si="54">DEC2HEX(ROUND(I45,0),4)</f>
+        <f t="shared" ref="J45" si="55">DEC2HEX(ROUND(I45,0),4)</f>
         <v>023B</v>
       </c>
       <c r="K45" t="str">
@@ -29673,8 +29863,12 @@
         <f t="shared" si="10"/>
         <v xml:space="preserve">   dw $023B      ;G7</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="T45" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">      dw -5        ;  G7</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" ht="23.25" x14ac:dyDescent="0.25">
       <c r="B46">
         <v>33</v>
       </c>
@@ -29691,11 +29885,11 @@
         <v>63</v>
       </c>
       <c r="G46">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>538.69973513123045</v>
       </c>
       <c r="H46" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>021B</v>
       </c>
       <c r="I46">
@@ -29703,7 +29897,7 @@
         <v>538.69973513123045</v>
       </c>
       <c r="J46" t="str">
-        <f t="shared" ref="J46" si="55">DEC2HEX(ROUND(I46,0),4)</f>
+        <f t="shared" ref="J46" si="56">DEC2HEX(ROUND(I46,0),4)</f>
         <v>021B</v>
       </c>
       <c r="K46" t="str">
@@ -29730,8 +29924,12 @@
         <f t="shared" si="10"/>
         <v xml:space="preserve">   dw $021B      ; G#7/Ab7 </v>
       </c>
-    </row>
-    <row r="47" spans="2:19" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="T46" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">      dw -5        ;   G#7/Ab7 </v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" ht="20.25" x14ac:dyDescent="0.25">
       <c r="B47">
         <v>34</v>
       </c>
@@ -29748,11 +29946,11 @@
         <v>64</v>
       </c>
       <c r="G47">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>508.45909090909089</v>
       </c>
       <c r="H47" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>01FC</v>
       </c>
       <c r="I47">
@@ -29760,7 +29958,7 @@
         <v>508.45909090909089</v>
       </c>
       <c r="J47" t="str">
-        <f t="shared" ref="J47" si="56">DEC2HEX(ROUND(I47,0),4)</f>
+        <f t="shared" ref="J47" si="57">DEC2HEX(ROUND(I47,0),4)</f>
         <v>01FC</v>
       </c>
       <c r="K47" t="str">
@@ -29787,8 +29985,12 @@
         <f t="shared" si="10"/>
         <v xml:space="preserve">   dw $01FC      ;A7</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="T47" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">      dw -4        ;  A7</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" ht="23.25" x14ac:dyDescent="0.25">
       <c r="B48">
         <v>35</v>
       </c>
@@ -29805,11 +30007,11 @@
         <v>65</v>
       </c>
       <c r="G48">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>479.92534752016473</v>
       </c>
       <c r="H48" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>01E0</v>
       </c>
       <c r="I48">
@@ -29817,7 +30019,7 @@
         <v>479.92534752016473</v>
       </c>
       <c r="J48" t="str">
-        <f t="shared" ref="J48" si="57">DEC2HEX(ROUND(I48,0),4)</f>
+        <f t="shared" ref="J48" si="58">DEC2HEX(ROUND(I48,0),4)</f>
         <v>01E0</v>
       </c>
       <c r="K48" t="str">
@@ -29844,8 +30046,12 @@
         <f t="shared" si="10"/>
         <v xml:space="preserve">   dw $01E0      ; A#7/Bb7 </v>
       </c>
-    </row>
-    <row r="49" spans="2:19" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="T48" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">      dw 0        ;   A#7/Bb7 </v>
+      </c>
+    </row>
+    <row r="49" spans="2:20" ht="20.25" x14ac:dyDescent="0.25">
       <c r="B49">
         <v>36</v>
       </c>
@@ -29862,11 +30068,11 @@
         <v>66</v>
       </c>
       <c r="G49">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>452.98858022191627</v>
       </c>
       <c r="H49" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>01C5</v>
       </c>
       <c r="I49">
@@ -29874,7 +30080,7 @@
         <v>452.98858022191627</v>
       </c>
       <c r="J49" t="str">
-        <f t="shared" ref="J49" si="58">DEC2HEX(ROUND(I49,0),4)</f>
+        <f t="shared" ref="J49" si="59">DEC2HEX(ROUND(I49,0),4)</f>
         <v>01C5</v>
       </c>
       <c r="K49" t="str">
@@ -29901,8 +30107,12 @@
         <f t="shared" si="10"/>
         <v xml:space="preserve">   dw $01C5      ;B7</v>
       </c>
-    </row>
-    <row r="50" spans="2:19" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="T49" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">      dw 5        ;  B7</v>
+      </c>
+    </row>
+    <row r="50" spans="2:20" ht="20.25" x14ac:dyDescent="0.25">
       <c r="B50">
         <v>37</v>
       </c>
@@ -29919,11 +30129,11 @@
         <v>67</v>
       </c>
       <c r="G50">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>427.55417956656345</v>
       </c>
       <c r="H50" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>01AC</v>
       </c>
       <c r="I50">
@@ -29931,7 +30141,7 @@
         <v>427.55417956656345</v>
       </c>
       <c r="J50" t="str">
-        <f t="shared" ref="J50" si="59">DEC2HEX(ROUND(I50,0),4)</f>
+        <f t="shared" ref="J50" si="60">DEC2HEX(ROUND(I50,0),4)</f>
         <v>01AC</v>
       </c>
       <c r="K50" t="str">
@@ -29958,8 +30168,12 @@
         <f t="shared" si="10"/>
         <v xml:space="preserve">   dw $01AC      ;C8</v>
       </c>
-    </row>
-    <row r="51" spans="2:19" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="T50" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">      dw -4        ;  C8</v>
+      </c>
+    </row>
+    <row r="51" spans="2:20" ht="23.25" x14ac:dyDescent="0.25">
       <c r="B51">
         <v>38</v>
       </c>
@@ -29976,11 +30190,11 @@
         <v>68</v>
       </c>
       <c r="G51">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>403.5680785049426</v>
       </c>
       <c r="H51" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>0194</v>
       </c>
       <c r="I51">
@@ -29988,7 +30202,7 @@
         <v>403.5680785049426</v>
       </c>
       <c r="J51" t="str">
-        <f t="shared" ref="J51" si="60">DEC2HEX(ROUND(I51,0),4)</f>
+        <f t="shared" ref="J51" si="61">DEC2HEX(ROUND(I51,0),4)</f>
         <v>0194</v>
       </c>
       <c r="K51" t="str">
@@ -30015,8 +30229,12 @@
         <f t="shared" si="10"/>
         <v xml:space="preserve">   dw $0194      ; C#8/Db8 </v>
       </c>
-    </row>
-    <row r="52" spans="2:19" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="T51" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">      dw 4        ;   C#8/Db8 </v>
+      </c>
+    </row>
+    <row r="52" spans="2:20" ht="20.25" x14ac:dyDescent="0.25">
       <c r="B52">
         <v>39</v>
       </c>
@@ -30033,11 +30251,11 @@
         <v>69</v>
       </c>
       <c r="G52">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>380.92011169379549</v>
       </c>
       <c r="H52" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>017D</v>
       </c>
       <c r="I52">
@@ -30045,7 +30263,7 @@
         <v>380.92011169379549</v>
       </c>
       <c r="J52" t="str">
-        <f t="shared" ref="J52" si="61">DEC2HEX(ROUND(I52,0),4)</f>
+        <f t="shared" ref="J52" si="62">DEC2HEX(ROUND(I52,0),4)</f>
         <v>017D</v>
       </c>
       <c r="K52" t="str">
@@ -30072,8 +30290,12 @@
         <f t="shared" si="10"/>
         <v xml:space="preserve">   dw $017D      ;D8</v>
       </c>
-    </row>
-    <row r="53" spans="2:19" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="T52" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">      dw -3        ;  D8</v>
+      </c>
+    </row>
+    <row r="53" spans="2:20" ht="23.25" x14ac:dyDescent="0.25">
       <c r="B53">
         <v>40</v>
       </c>
@@ -30090,11 +30312,11 @@
         <v>70</v>
       </c>
       <c r="G53">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>359.53138559444608</v>
       </c>
       <c r="H53" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>0168</v>
       </c>
       <c r="I53">
@@ -30102,7 +30324,7 @@
         <v>359.53138559444608</v>
       </c>
       <c r="J53" t="str">
-        <f t="shared" ref="J53" si="62">DEC2HEX(ROUND(I53,0),4)</f>
+        <f t="shared" ref="J53" si="63">DEC2HEX(ROUND(I53,0),4)</f>
         <v>0168</v>
       </c>
       <c r="K53" t="str">
@@ -30129,8 +30351,12 @@
         <f t="shared" si="10"/>
         <v xml:space="preserve">   dw $0168      ; D#8/Eb8 </v>
       </c>
-    </row>
-    <row r="54" spans="2:19" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="T53" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">      dw 8        ;   D#8/Eb8 </v>
+      </c>
+    </row>
+    <row r="54" spans="2:20" ht="20.25" x14ac:dyDescent="0.25">
       <c r="B54">
         <v>41</v>
       </c>
@@ -30147,11 +30373,11 @@
         <v>71</v>
       </c>
       <c r="G54">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>339.35321420987168</v>
       </c>
       <c r="H54" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>0153</v>
       </c>
       <c r="I54">
@@ -30159,7 +30385,7 @@
         <v>339.35321420987168</v>
       </c>
       <c r="J54" t="str">
-        <f t="shared" ref="J54" si="63">DEC2HEX(ROUND(I54,0),4)</f>
+        <f t="shared" ref="J54" si="64">DEC2HEX(ROUND(I54,0),4)</f>
         <v>0153</v>
       </c>
       <c r="K54" t="str">
@@ -30186,8 +30412,12 @@
         <f t="shared" si="10"/>
         <v xml:space="preserve">   dw $0153      ;E8</v>
       </c>
-    </row>
-    <row r="55" spans="2:19" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="T54" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">      dw 3        ;  E8</v>
+      </c>
+    </row>
+    <row r="55" spans="2:20" ht="20.25" x14ac:dyDescent="0.25">
       <c r="B55">
         <v>42</v>
       </c>
@@ -30204,11 +30434,11 @@
         <v>72</v>
       </c>
       <c r="G55">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>320.30753371703463</v>
       </c>
       <c r="H55" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>0140</v>
       </c>
       <c r="I55">
@@ -30216,7 +30446,7 @@
         <v>320.30753371703463</v>
       </c>
       <c r="J55" t="str">
-        <f t="shared" ref="J55" si="64">DEC2HEX(ROUND(I55,0),4)</f>
+        <f t="shared" ref="J55" si="65">DEC2HEX(ROUND(I55,0),4)</f>
         <v>0140</v>
       </c>
       <c r="K55" t="str">
@@ -30243,8 +30473,12 @@
         <f t="shared" si="10"/>
         <v xml:space="preserve">   dw $0140      ;F8</v>
       </c>
-    </row>
-    <row r="56" spans="2:19" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="T55" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">      dw 0        ;  F8</v>
+      </c>
+    </row>
+    <row r="56" spans="2:20" ht="23.25" x14ac:dyDescent="0.25">
       <c r="B56">
         <v>43</v>
       </c>
@@ -30261,11 +30495,11 @@
         <v>73</v>
       </c>
       <c r="G56">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>302.33519824860133</v>
       </c>
       <c r="H56" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>012E</v>
       </c>
       <c r="I56">
@@ -30273,7 +30507,7 @@
         <v>302.33519824860133</v>
       </c>
       <c r="J56" t="str">
-        <f t="shared" ref="J56" si="65">DEC2HEX(ROUND(I56,0),4)</f>
+        <f t="shared" ref="J56" si="66">DEC2HEX(ROUND(I56,0),4)</f>
         <v>012E</v>
       </c>
       <c r="K56" t="str">
@@ -30300,8 +30534,12 @@
         <f t="shared" si="10"/>
         <v xml:space="preserve">   dw $012E      ; F#8/Gb8 </v>
       </c>
-    </row>
-    <row r="57" spans="2:19" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="T56" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">      dw -2        ;   F#8/Gb8 </v>
+      </c>
+    </row>
+    <row r="57" spans="2:20" ht="20.25" x14ac:dyDescent="0.25">
       <c r="B57">
         <v>44</v>
       </c>
@@ -30318,11 +30556,11 @@
         <v>74</v>
       </c>
       <c r="G57">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>285.35969387755102</v>
       </c>
       <c r="H57" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>011D</v>
       </c>
       <c r="I57">
@@ -30330,7 +30568,7 @@
         <v>285.35969387755102</v>
       </c>
       <c r="J57" t="str">
-        <f t="shared" ref="J57" si="66">DEC2HEX(ROUND(I57,0),4)</f>
+        <f t="shared" ref="J57" si="67">DEC2HEX(ROUND(I57,0),4)</f>
         <v>011D</v>
       </c>
       <c r="K57" t="str">
@@ -30357,8 +30595,12 @@
         <f t="shared" si="10"/>
         <v xml:space="preserve">   dw $011D      ;G8</v>
       </c>
-    </row>
-    <row r="58" spans="2:19" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="T57" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">      dw -3        ;  G8</v>
+      </c>
+    </row>
+    <row r="58" spans="2:20" ht="23.25" x14ac:dyDescent="0.25">
       <c r="B58">
         <v>45</v>
       </c>
@@ -30375,11 +30617,11 @@
         <v>75</v>
       </c>
       <c r="G58">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>269.34986756561523</v>
       </c>
       <c r="H58" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>010D</v>
       </c>
       <c r="I58">
@@ -30387,7 +30629,7 @@
         <v>269.34986756561523</v>
       </c>
       <c r="J58" t="str">
-        <f t="shared" ref="J58" si="67">DEC2HEX(ROUND(I58,0),4)</f>
+        <f t="shared" ref="J58" si="68">DEC2HEX(ROUND(I58,0),4)</f>
         <v>010D</v>
       </c>
       <c r="K58" t="str">
@@ -30414,8 +30656,12 @@
         <f t="shared" si="10"/>
         <v xml:space="preserve">   dw $010D      ; G#8/Ab8 </v>
       </c>
-    </row>
-    <row r="59" spans="2:19" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="T58" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">      dw -3        ;   G#8/Ab8 </v>
+      </c>
+    </row>
+    <row r="59" spans="2:20" ht="20.25" x14ac:dyDescent="0.25">
       <c r="B59">
         <v>46</v>
       </c>
@@ -30432,11 +30678,11 @@
         <v>76</v>
       </c>
       <c r="G59">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>254.22954545454544</v>
       </c>
       <c r="H59" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>00FE</v>
       </c>
       <c r="I59">
@@ -30444,7 +30690,7 @@
         <v>254.22954545454544</v>
       </c>
       <c r="J59" t="str">
-        <f t="shared" ref="J59" si="68">DEC2HEX(ROUND(I59,0),4)</f>
+        <f t="shared" ref="J59" si="69">DEC2HEX(ROUND(I59,0),4)</f>
         <v>00FE</v>
       </c>
       <c r="K59" t="str">
@@ -30471,8 +30717,12 @@
         <f t="shared" si="10"/>
         <v xml:space="preserve">   dw $00FE      ;A8</v>
       </c>
-    </row>
-    <row r="60" spans="2:19" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="T59" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">      dw -2        ;  A8</v>
+      </c>
+    </row>
+    <row r="60" spans="2:20" ht="23.25" x14ac:dyDescent="0.25">
       <c r="B60">
         <v>47</v>
       </c>
@@ -30489,11 +30739,11 @@
         <v>77</v>
       </c>
       <c r="G60">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>239.96267376008237</v>
       </c>
       <c r="H60" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>00F0</v>
       </c>
       <c r="I60">
@@ -30501,7 +30751,7 @@
         <v>239.96267376008237</v>
       </c>
       <c r="J60" t="str">
-        <f t="shared" ref="J60" si="69">DEC2HEX(ROUND(I60,0),4)</f>
+        <f t="shared" ref="J60" si="70">DEC2HEX(ROUND(I60,0),4)</f>
         <v>00F0</v>
       </c>
       <c r="K60" t="str">
@@ -30528,8 +30778,12 @@
         <f t="shared" si="10"/>
         <v xml:space="preserve">   dw $00F0      ; A#8/Bb8 </v>
       </c>
-    </row>
-    <row r="61" spans="2:19" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="T60" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">      dw 0        ;   A#8/Bb8 </v>
+      </c>
+    </row>
+    <row r="61" spans="2:20" ht="20.25" x14ac:dyDescent="0.25">
       <c r="B61">
         <v>48</v>
       </c>
@@ -30546,11 +30800,11 @@
         <v>78</v>
       </c>
       <c r="G61">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>226.49429011095813</v>
       </c>
       <c r="H61" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>00E2</v>
       </c>
       <c r="I61">
@@ -30558,7 +30812,7 @@
         <v>226.49429011095813</v>
       </c>
       <c r="J61" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>00E2</v>
       </c>
       <c r="K61" t="str">
@@ -30585,8 +30839,12 @@
         <f t="shared" si="10"/>
         <v xml:space="preserve">   dw $00E2      ;B8</v>
       </c>
-    </row>
-    <row r="62" spans="2:19" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="T61" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">      dw 2        ;  B8</v>
+      </c>
+    </row>
+    <row r="62" spans="2:20" ht="20.25" x14ac:dyDescent="0.25">
       <c r="B62">
         <v>49</v>
       </c>
@@ -30599,11 +30857,11 @@
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
       <c r="G62">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>213.78117534639273</v>
       </c>
       <c r="H62" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>00D6</v>
       </c>
       <c r="I62" s="8"/>
@@ -30614,7 +30872,7 @@
         <v xml:space="preserve">   dw $0020      ;A7</v>
       </c>
     </row>
-    <row r="63" spans="2:19" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:20" ht="23.25" x14ac:dyDescent="0.25">
       <c r="B63">
         <v>50</v>
       </c>
@@ -30627,11 +30885,11 @@
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
       <c r="G63">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>201.7803993722604</v>
       </c>
       <c r="H63" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>00CA</v>
       </c>
       <c r="I63" s="8"/>
@@ -30642,7 +30900,7 @@
         <v xml:space="preserve">   dw $001E      ; A#7/Bb7 </v>
       </c>
     </row>
-    <row r="64" spans="2:19" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:20" ht="20.25" x14ac:dyDescent="0.25">
       <c r="B64">
         <v>51</v>
       </c>
@@ -30655,11 +30913,11 @@
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
       <c r="G64">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>190.45681303526126</v>
       </c>
       <c r="H64" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>00BE</v>
       </c>
       <c r="I64" s="8"/>
@@ -30683,11 +30941,11 @@
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
       <c r="G65">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>179.76858175974286</v>
       </c>
       <c r="H65" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>00B4</v>
       </c>
       <c r="I65" s="8"/>
@@ -30711,11 +30969,11 @@
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
       <c r="G66">
-        <f t="shared" ref="G66:G97" si="70">$A$2/D66</f>
+        <f t="shared" ref="G66:G97" si="71">$A$2/D66</f>
         <v>169.67918088737201</v>
       </c>
       <c r="H66" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>00AA</v>
       </c>
       <c r="I66" s="8"/>
@@ -30739,11 +30997,11 @@
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
       <c r="G67">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>160.15376685851732</v>
       </c>
       <c r="H67" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>00A0</v>
       </c>
       <c r="I67" s="8"/>
@@ -30767,18 +31025,18 @@
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
       <c r="G68">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>151.16555629130124</v>
       </c>
       <c r="H68" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>0097</v>
       </c>
       <c r="I68" s="8"/>
       <c r="J68" s="8"/>
       <c r="K68" s="8"/>
       <c r="R68" t="str">
-        <f t="shared" ref="R68:R73" si="71">_xlfn.CONCAT("   dw $",H101,"      ;",C101)</f>
+        <f t="shared" ref="R68:R73" si="72">_xlfn.CONCAT("   dw $",H101,"      ;",C101)</f>
         <v xml:space="preserve">   dw $0016      ; D#8/Eb8 </v>
       </c>
     </row>
@@ -30795,18 +31053,18 @@
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
       <c r="G69">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>142.68166685799562</v>
       </c>
       <c r="H69" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>008F</v>
       </c>
       <c r="I69" s="8"/>
       <c r="J69" s="8"/>
       <c r="K69" s="8"/>
       <c r="R69" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v xml:space="preserve">   dw $0015      ;E8</v>
       </c>
     </row>
@@ -30823,18 +31081,18 @@
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
       <c r="G70">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>134.67331238487375</v>
       </c>
       <c r="H70" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>0087</v>
       </c>
       <c r="I70" s="8"/>
       <c r="J70" s="8"/>
       <c r="K70" s="8"/>
       <c r="R70" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v xml:space="preserve">   dw $0014      ;F8</v>
       </c>
     </row>
@@ -30851,18 +31109,18 @@
       <c r="E71" s="1"/>
       <c r="F71" s="1"/>
       <c r="G71">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>127.11477272727272</v>
       </c>
       <c r="H71" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>007F</v>
       </c>
       <c r="I71" s="8"/>
       <c r="J71" s="8"/>
       <c r="K71" s="8"/>
       <c r="R71" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v xml:space="preserve">   dw $0013      ; F#8/Gb8 </v>
       </c>
     </row>
@@ -30879,18 +31137,18 @@
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
       <c r="G72">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>119.9800499823024</v>
       </c>
       <c r="H72" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>0078</v>
       </c>
       <c r="I72" s="8"/>
       <c r="J72" s="8"/>
       <c r="K72" s="8"/>
       <c r="R72" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v xml:space="preserve">   dw $0012      ;G8</v>
       </c>
     </row>
@@ -30907,18 +31165,18 @@
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
       <c r="G73">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>113.24599856241838</v>
       </c>
       <c r="H73" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>0071</v>
       </c>
       <c r="I73" s="8"/>
       <c r="J73" s="8"/>
       <c r="K73" s="8"/>
       <c r="R73" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v xml:space="preserve">   dw $0011      ; G#8/Ab8 </v>
       </c>
     </row>
@@ -30935,11 +31193,11 @@
       <c r="E74" s="1"/>
       <c r="F74" s="1"/>
       <c r="G74">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>106.89058767319636</v>
       </c>
       <c r="H74" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>006B</v>
       </c>
       <c r="I74" s="8"/>
@@ -30963,18 +31221,18 @@
       <c r="E75" s="1"/>
       <c r="F75" s="1"/>
       <c r="G75">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>100.89110964797561</v>
       </c>
       <c r="H75" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>0065</v>
       </c>
       <c r="I75" s="8"/>
       <c r="J75" s="8"/>
       <c r="K75" s="8"/>
       <c r="R75" t="str">
-        <f t="shared" ref="R75:R76" si="72">_xlfn.CONCAT("   dw $",H108,"      ;",C108)</f>
+        <f t="shared" ref="R75:R76" si="73">_xlfn.CONCAT("   dw $",H108,"      ;",C108)</f>
         <v xml:space="preserve">   dw $000F      ; A#8/Bb8 </v>
       </c>
     </row>
@@ -30991,18 +31249,18 @@
       <c r="E76" s="1"/>
       <c r="F76" s="1"/>
       <c r="G76">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>95.228406517630631</v>
       </c>
       <c r="H76" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>005F</v>
       </c>
       <c r="I76" s="8"/>
       <c r="J76" s="8"/>
       <c r="K76" s="8"/>
       <c r="R76" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v xml:space="preserve">   dw $000E      ;B8</v>
       </c>
     </row>
@@ -31019,11 +31277,11 @@
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
       <c r="G77">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>89.88356863343806</v>
       </c>
       <c r="H77" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>005A</v>
       </c>
       <c r="I77" s="8"/>
@@ -31043,11 +31301,11 @@
       <c r="E78" s="1"/>
       <c r="F78" s="1"/>
       <c r="G78">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>84.83894699319687</v>
       </c>
       <c r="H78" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>0055</v>
       </c>
       <c r="I78" s="8"/>
@@ -31067,11 +31325,11 @@
       <c r="E79" s="1"/>
       <c r="F79" s="1"/>
       <c r="G79">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>80.077456672226546</v>
       </c>
       <c r="H79" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>0050</v>
       </c>
       <c r="I79" s="8"/>
@@ -31091,11 +31349,11 @@
       <c r="E80" s="1"/>
       <c r="F80" s="1"/>
       <c r="G80">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>75.582778145650622</v>
       </c>
       <c r="H80" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>004C</v>
       </c>
       <c r="I80" s="8"/>
@@ -31115,11 +31373,11 @@
       <c r="E81" s="1"/>
       <c r="F81" s="1"/>
       <c r="G81">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>71.340833428997811</v>
       </c>
       <c r="H81" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>0047</v>
       </c>
       <c r="I81" s="8"/>
@@ -31139,11 +31397,11 @@
       <c r="E82" s="1"/>
       <c r="F82" s="1"/>
       <c r="G82">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>67.336656192436877</v>
       </c>
       <c r="H82" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>0043</v>
       </c>
       <c r="I82" s="8"/>
@@ -31163,11 +31421,11 @@
       <c r="E83" s="1"/>
       <c r="F83" s="1"/>
       <c r="G83">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>63.557386363636361</v>
       </c>
       <c r="H83" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>0040</v>
       </c>
       <c r="I83" s="8"/>
@@ -31187,11 +31445,11 @@
       <c r="E84" s="1"/>
       <c r="F84" s="1"/>
       <c r="G84">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>59.990024991151202</v>
       </c>
       <c r="H84" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>003C</v>
       </c>
       <c r="I84" s="8"/>
@@ -31211,11 +31469,11 @@
       <c r="E85" s="1"/>
       <c r="F85" s="1"/>
       <c r="G85">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>56.623285903023493</v>
       </c>
       <c r="H85" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>0039</v>
       </c>
       <c r="I85" s="8"/>
@@ -31235,11 +31493,11 @@
       <c r="E86" s="1"/>
       <c r="F86" s="1"/>
       <c r="G86">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>53.445293836598182</v>
       </c>
       <c r="H86" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>0035</v>
       </c>
       <c r="I86" s="8"/>
@@ -31259,11 +31517,11 @@
       <c r="E87" s="1"/>
       <c r="F87" s="1"/>
       <c r="G87">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>50.445554823987806</v>
       </c>
       <c r="H87" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>0032</v>
       </c>
       <c r="I87" s="8"/>
@@ -31283,11 +31541,11 @@
       <c r="E88" s="1"/>
       <c r="F88" s="1"/>
       <c r="G88">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>47.614203258815316</v>
       </c>
       <c r="H88" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>0030</v>
       </c>
       <c r="I88" s="8"/>
@@ -31307,11 +31565,11 @@
       <c r="E89" s="1"/>
       <c r="F89" s="1"/>
       <c r="G89">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>44.94178431671903</v>
       </c>
       <c r="H89" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>002D</v>
       </c>
       <c r="I89" s="8"/>
@@ -31331,11 +31589,11 @@
       <c r="E90" s="1"/>
       <c r="F90" s="1"/>
       <c r="G90">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>42.419473496598435</v>
       </c>
       <c r="H90" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>002A</v>
       </c>
       <c r="I90" s="8"/>
@@ -31355,11 +31613,11 @@
       <c r="E91" s="1"/>
       <c r="F91" s="1"/>
       <c r="G91">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>40.038585024858349</v>
       </c>
       <c r="H91" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>0028</v>
       </c>
       <c r="I91" s="8"/>
@@ -31379,11 +31637,11 @@
       <c r="E92" s="1"/>
       <c r="F92" s="1"/>
       <c r="G92">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>37.791389072825311</v>
       </c>
       <c r="H92" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>0026</v>
       </c>
       <c r="I92" s="8"/>
@@ -31403,11 +31661,11 @@
       <c r="E93" s="1"/>
       <c r="F93" s="1"/>
       <c r="G93">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>35.670416714498906</v>
       </c>
       <c r="H93" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>0024</v>
       </c>
       <c r="I93" s="8"/>
@@ -31427,11 +31685,11 @@
       <c r="E94" s="1"/>
       <c r="F94" s="1"/>
       <c r="G94">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>33.668328096218438</v>
       </c>
       <c r="H94" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>0022</v>
       </c>
       <c r="I94" s="8"/>
@@ -31451,11 +31709,11 @@
       <c r="E95" s="1"/>
       <c r="F95" s="1"/>
       <c r="G95">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>31.778693181818181</v>
       </c>
       <c r="H95" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>0020</v>
       </c>
       <c r="I95" s="8"/>
@@ -31475,11 +31733,11 @@
       <c r="E96" s="1"/>
       <c r="F96" s="1"/>
       <c r="G96">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>29.995092926037255</v>
       </c>
       <c r="H96" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>001E</v>
       </c>
       <c r="I96" s="8"/>
@@ -31499,11 +31757,11 @@
       <c r="E97" s="1"/>
       <c r="F97" s="1"/>
       <c r="G97">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>28.311571295876814</v>
       </c>
       <c r="H97" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>001C</v>
       </c>
       <c r="I97" s="8"/>
@@ -31523,11 +31781,11 @@
       <c r="E98" s="1"/>
       <c r="F98" s="1"/>
       <c r="G98">
-        <f t="shared" ref="G98:G109" si="73">$A$2/D98</f>
+        <f t="shared" ref="G98:G109" si="74">$A$2/D98</f>
         <v>26.722583080307977</v>
       </c>
       <c r="H98" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>001B</v>
       </c>
       <c r="I98" s="8"/>
@@ -31547,11 +31805,11 @@
       <c r="E99" s="1"/>
       <c r="F99" s="1"/>
       <c r="G99">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>25.222777411993903</v>
       </c>
       <c r="H99" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>0019</v>
       </c>
       <c r="I99" s="8"/>
@@ -31571,11 +31829,11 @@
       <c r="E100" s="1"/>
       <c r="F100" s="1"/>
       <c r="G100">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>23.807152297584615</v>
       </c>
       <c r="H100" t="str">
-        <f t="shared" ref="H100:H109" si="74">DEC2HEX(ROUND(G100,0),4)</f>
+        <f t="shared" ref="H100:H121" si="75">DEC2HEX(ROUND(G100,0),4)</f>
         <v>0018</v>
       </c>
       <c r="I100" s="8"/>
@@ -31595,11 +31853,11 @@
       <c r="E101" s="1"/>
       <c r="F101" s="1"/>
       <c r="G101">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>22.470937298489563</v>
       </c>
       <c r="H101" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>0016</v>
       </c>
       <c r="I101" s="8"/>
@@ -31619,11 +31877,11 @@
       <c r="E102" s="1"/>
       <c r="F102" s="1"/>
       <c r="G102">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>21.209736748299218</v>
       </c>
       <c r="H102" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>0015</v>
       </c>
       <c r="I102" s="8"/>
@@ -31643,11 +31901,11 @@
       <c r="E103" s="1"/>
       <c r="F103" s="1"/>
       <c r="G103">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>20.019328340178788</v>
       </c>
       <c r="H103" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>0014</v>
       </c>
       <c r="I103" s="8"/>
@@ -31667,11 +31925,11 @@
       <c r="E104" s="1"/>
       <c r="F104" s="1"/>
       <c r="G104">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>18.895726455300842</v>
       </c>
       <c r="H104" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>0013</v>
       </c>
       <c r="I104" s="8"/>
@@ -31691,11 +31949,11 @@
       <c r="E105" s="1"/>
       <c r="F105" s="1"/>
       <c r="G105">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>17.835179920694266</v>
       </c>
       <c r="H105" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>0012</v>
       </c>
       <c r="I105" s="8"/>
@@ -31715,11 +31973,11 @@
       <c r="E106" s="1"/>
       <c r="F106" s="1"/>
       <c r="G106">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>16.834164048109219</v>
       </c>
       <c r="H106" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>0011</v>
       </c>
       <c r="I106" s="8"/>
@@ -31739,11 +31997,11 @@
       <c r="E107" s="1"/>
       <c r="F107" s="1"/>
       <c r="G107">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>15.88934659090909</v>
       </c>
       <c r="H107" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>0010</v>
       </c>
       <c r="I107" s="8"/>
@@ -31763,11 +32021,11 @@
       <c r="E108" s="1"/>
       <c r="F108" s="1"/>
       <c r="G108">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>14.997546463018628</v>
       </c>
       <c r="H108" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>000F</v>
       </c>
       <c r="I108" s="8"/>
@@ -31787,19 +32045,175 @@
       <c r="E109" s="1"/>
       <c r="F109" s="1"/>
       <c r="G109">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>14.15580356182447</v>
       </c>
       <c r="H109" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>000E</v>
       </c>
       <c r="I109" s="8"/>
       <c r="J109" s="8"/>
       <c r="K109" s="8"/>
     </row>
+    <row r="110" spans="2:11" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C110" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G110">
+        <f>G14/256</f>
+        <v>13.362600344036696</v>
+      </c>
+      <c r="H110" t="str">
+        <f t="shared" si="75"/>
+        <v>000D</v>
+      </c>
+    </row>
+    <row r="111" spans="2:11" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="C111" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G111">
+        <f t="shared" ref="G111:G121" si="76">G15/256</f>
+        <v>12.610592532467534</v>
+      </c>
+      <c r="H111" t="str">
+        <f t="shared" si="75"/>
+        <v>000D</v>
+      </c>
+    </row>
+    <row r="112" spans="2:11" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C112" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G112">
+        <f t="shared" si="76"/>
+        <v>11.902942828929447</v>
+      </c>
+      <c r="H112" t="str">
+        <f t="shared" si="75"/>
+        <v>000C</v>
+      </c>
+    </row>
+    <row r="113" spans="3:8" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="C113" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G113">
+        <f t="shared" si="76"/>
+        <v>11.235716925944972</v>
+      </c>
+      <c r="H113" t="str">
+        <f t="shared" si="75"/>
+        <v>000B</v>
+      </c>
+    </row>
+    <row r="114" spans="3:8" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C114" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G114">
+        <f t="shared" si="76"/>
+        <v>10.60575318567961</v>
+      </c>
+      <c r="H114" t="str">
+        <f t="shared" si="75"/>
+        <v>000B</v>
+      </c>
+    </row>
+    <row r="115" spans="3:8" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C115" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G115">
+        <f t="shared" si="76"/>
+        <v>10.010470360824742</v>
+      </c>
+      <c r="H115" t="str">
+        <f t="shared" si="75"/>
+        <v>000A</v>
+      </c>
+    </row>
+    <row r="116" spans="3:8" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="C116" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G116">
+        <f t="shared" si="76"/>
+        <v>9.4477195945945951</v>
+      </c>
+      <c r="H116" t="str">
+        <f t="shared" si="75"/>
+        <v>0009</v>
+      </c>
+    </row>
+    <row r="117" spans="3:8" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C117" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G117">
+        <f t="shared" si="76"/>
+        <v>8.9174904336734695</v>
+      </c>
+      <c r="H117" t="str">
+        <f t="shared" si="75"/>
+        <v>0009</v>
+      </c>
+    </row>
+    <row r="118" spans="3:8" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="C118" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G118">
+        <f t="shared" si="76"/>
+        <v>8.4175887353111154</v>
+      </c>
+      <c r="H118" t="str">
+        <f t="shared" si="75"/>
+        <v>0008</v>
+      </c>
+    </row>
+    <row r="119" spans="3:8" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C119" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G119">
+        <f t="shared" si="76"/>
+        <v>7.9446732954545451</v>
+      </c>
+      <c r="H119" t="str">
+        <f t="shared" si="75"/>
+        <v>0008</v>
+      </c>
+    </row>
+    <row r="120" spans="3:8" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="C120" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G120">
+        <f t="shared" si="76"/>
+        <v>7.498833555002574</v>
+      </c>
+      <c r="H120" t="str">
+        <f t="shared" si="75"/>
+        <v>0007</v>
+      </c>
+    </row>
+    <row r="121" spans="3:8" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C121" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G121">
+        <f t="shared" si="76"/>
+        <v>7.0773733600583091</v>
+      </c>
+      <c r="H121" t="str">
+        <f t="shared" si="75"/>
+        <v>0007</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="L1:L1048576">
+  <conditionalFormatting sqref="L1:L1048576 M1">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
